--- a/Vim.xlsx
+++ b/Vim.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4.文档\Note\Note\Linux\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mi\Desktop\Programma\Linux\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E55EF1-BB7F-4918-90C3-921C997C14AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D42205-41BF-4A70-93E5-C907A0875D9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="228">
   <si>
     <t>创建及打开</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -450,10 +450,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>从光标处删除n个字符</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -482,10 +478,6 @@
   </si>
   <si>
     <t xml:space="preserve">从光标处搜索指定字符串 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按n键向上跳转</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -503,10 +495,6 @@
   </si>
   <si>
     <t>删除光标前字符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dG 或者 d$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2170,6 +2158,159 @@
       </rPr>
       <t>缩进</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单词自动补全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出现菜单并上下选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同上，但默认是最后一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行自动补全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^x 然后 ^l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动补全行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vim中打开文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:e .</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开内置文件浏览器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:e 文件名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接打开文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:n 文件名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式化文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分屏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:vsp (文件名)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:sp (文件名)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>横向分屏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纵向分屏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^w 然后 w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">^w 然后 r </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^w 然后 c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^w 然后 q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^w 然后 o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换到下一窗口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互换窗口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭当前窗口 但不能关闭最后一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出当前窗口 可以退出最后一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭其他窗口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">D </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>或者 d$</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按n键向上跳转，N向下</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2177,7 +2318,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2252,8 +2393,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2266,8 +2415,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -2365,11 +2526,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2383,6 +2596,48 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2401,17 +2656,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2419,46 +2674,43 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2884,7 +3136,7 @@
   <dimension ref="A1:Z74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2904,87 +3156,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="20"/>
       <c r="C1" s="4"/>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="20"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="20"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="4"/>
-    </row>
-    <row r="2" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>185</v>
+      <c r="E4" s="6" t="s">
+        <v>182</v>
       </c>
       <c r="F4" s="4"/>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="6" t="s">
         <v>64</v>
       </c>
       <c r="I4" s="4"/>
@@ -2993,15 +3245,15 @@
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="E5" s="12"/>
+      <c r="D5" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="24"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="6" t="s">
         <v>65</v>
       </c>
       <c r="I5" s="4"/>
@@ -3013,44 +3265,44 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="H6" s="13" t="s">
+      <c r="G6" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H6" s="22" t="s">
         <v>66</v>
       </c>
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="6"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" s="6"/>
+      <c r="D7" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="20"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H7" s="12"/>
+      <c r="H7" s="24"/>
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>79</v>
+        <v>74</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>78</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -3058,106 +3310,106 @@
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="21"/>
-      <c r="E9" s="22" t="s">
-        <v>137</v>
+      <c r="E9" s="16" t="s">
+        <v>134</v>
       </c>
       <c r="F9" s="4"/>
-      <c r="G9" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="H9" s="6"/>
+      <c r="G9" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="H9" s="20"/>
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>77</v>
-      </c>
       <c r="F10" s="4"/>
-      <c r="G10" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>194</v>
+      <c r="G10" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>36</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="21"/>
-      <c r="E11" s="8" t="s">
-        <v>80</v>
+      <c r="E11" s="6" t="s">
+        <v>227</v>
       </c>
       <c r="F11" s="4"/>
-      <c r="G11" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>195</v>
+      <c r="G11" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>192</v>
       </c>
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="13"/>
+        <v>77</v>
+      </c>
+      <c r="E12" s="22"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="H12" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>186</v>
+      <c r="E13" s="6" t="s">
+        <v>183</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="25" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H13" s="26"/>
       <c r="I13" s="4"/>
@@ -3166,11 +3418,11 @@
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
-      <c r="D14" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>187</v>
+      <c r="D14" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>184</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="25"/>
@@ -3178,16 +3430,16 @@
       <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="B15" s="6"/>
+      <c r="A15" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="B15" s="20"/>
       <c r="C15" s="4"/>
-      <c r="D15" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>188</v>
+      <c r="D15" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>185</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="27"/>
@@ -3195,18 +3447,18 @@
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>161</v>
+      <c r="B16" s="6" t="s">
+        <v>158</v>
       </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>189</v>
+      <c r="D16" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>186</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -3214,319 +3466,319 @@
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>0</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="7">
-        <v>0</v>
-      </c>
-      <c r="B18" s="8" t="s">
+      <c r="C20" s="4"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="8" t="s">
+      <c r="C21" s="4"/>
+      <c r="D21" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="8" t="s">
+      <c r="C22" s="4"/>
+      <c r="D22" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="E22" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
+      <c r="C23" s="4"/>
+      <c r="D23" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B24" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H21" s="8" t="s">
+      <c r="C24" s="4"/>
+      <c r="D24" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="E24" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H24" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="B22" s="8" t="s">
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="1:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="E22" s="8" t="s">
+      <c r="C25" s="4"/>
+      <c r="D25" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="I22" s="4"/>
-    </row>
-    <row r="23" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="8" t="s">
+      <c r="E25" s="41" t="s">
         <v>143</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="I23" s="4"/>
-    </row>
-    <row r="24" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="I24" s="4"/>
-    </row>
-    <row r="25" spans="1:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>146</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="H25" s="13"/>
+        <v>110</v>
+      </c>
+      <c r="H25" s="22"/>
       <c r="I25" s="4"/>
     </row>
     <row r="26" spans="1:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>171</v>
+      <c r="A26" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>168</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="7" t="s">
+      <c r="G26" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="E27" s="20"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="H26" s="8" t="s">
+      <c r="H29" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="I26" s="4"/>
-    </row>
-    <row r="27" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="B27" s="8" t="s">
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="1:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="1:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>172</v>
-      </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="H27" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="I27" s="4"/>
-    </row>
-    <row r="28" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="H28" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="I28" s="4"/>
-    </row>
-    <row r="29" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="H29" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="I29" s="4"/>
-    </row>
-    <row r="30" spans="1:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="H30" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="I30" s="4"/>
-    </row>
-    <row r="31" spans="1:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>175</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -3537,82 +3789,82 @@
       <c r="I31" s="4"/>
     </row>
     <row r="32" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="20"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="4"/>
+    </row>
+    <row r="33" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I33" s="4"/>
+    </row>
+    <row r="34" spans="1:26" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="I34" s="4"/>
+    </row>
+    <row r="35" spans="1:26" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B35" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="H32" s="6"/>
-      <c r="I32" s="4"/>
-    </row>
-    <row r="33" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="I33" s="4"/>
-    </row>
-    <row r="34" spans="1:26" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="H34" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="I34" s="4"/>
-    </row>
-    <row r="35" spans="1:26" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>180</v>
-      </c>
       <c r="C35" s="4"/>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="6" t="s">
         <v>47</v>
       </c>
       <c r="F35" s="4"/>
@@ -3624,148 +3876,152 @@
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="6" t="s">
         <v>48</v>
       </c>
       <c r="F36" s="4"/>
-      <c r="G36" s="5" t="s">
+      <c r="G36" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="H36" s="6"/>
+      <c r="H36" s="20"/>
       <c r="I36" s="4"/>
     </row>
     <row r="37" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B37" s="6"/>
+      <c r="A37" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37" s="43"/>
       <c r="C37" s="4"/>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="6" t="s">
         <v>49</v>
       </c>
       <c r="F37" s="4"/>
-      <c r="G37" s="7" t="s">
+      <c r="G37" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H37" s="8" t="s">
+      <c r="H37" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I37" s="4"/>
     </row>
     <row r="38" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>181</v>
+      <c r="A38" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>178</v>
       </c>
       <c r="C38" s="4"/>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E38" s="6" t="s">
         <v>50</v>
       </c>
       <c r="F38" s="4"/>
-      <c r="G38" s="7" t="s">
+      <c r="G38" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H38" s="8" t="s">
+      <c r="H38" s="6" t="s">
         <v>22</v>
       </c>
       <c r="I38" s="4"/>
     </row>
     <row r="39" spans="1:26" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>182</v>
+      <c r="A39" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>179</v>
       </c>
       <c r="C39" s="4"/>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E39" s="10" t="s">
-        <v>159</v>
+      <c r="E39" s="8" t="s">
+        <v>156</v>
       </c>
       <c r="F39" s="4"/>
-      <c r="G39" s="7" t="s">
+      <c r="G39" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H39" s="8" t="s">
+      <c r="H39" s="6" t="s">
         <v>23</v>
       </c>
       <c r="I39" s="4"/>
     </row>
     <row r="40" spans="1:26" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>183</v>
+      <c r="A40" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>180</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
-      <c r="G40" s="7" t="s">
+      <c r="G40" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H40" s="8" t="s">
+      <c r="H40" s="6" t="s">
         <v>25</v>
       </c>
       <c r="I40" s="4"/>
     </row>
     <row r="41" spans="1:26" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="B41" s="12"/>
+      <c r="A41" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="B41" s="24"/>
       <c r="C41" s="4"/>
-      <c r="D41" s="15" t="s">
+      <c r="D41" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="E41" s="16"/>
+      <c r="E41" s="30"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="7" t="s">
+      <c r="G41" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H41" s="8" t="s">
-        <v>86</v>
+      <c r="H41" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="I41" s="4"/>
     </row>
     <row r="42" spans="1:26" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C42" s="4"/>
-      <c r="D42" s="17" t="s">
+      <c r="D42" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E42" s="18" t="s">
+      <c r="E42" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F42" s="4"/>
-      <c r="G42" s="9" t="s">
+      <c r="G42" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H42" s="10" t="s">
+      <c r="H42" s="8" t="s">
         <v>24</v>
       </c>
       <c r="I42" s="4"/>
     </row>
     <row r="43" spans="1:26" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="B43" s="30"/>
       <c r="C43" s="4"/>
-      <c r="D43" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="E43" s="20" t="s">
-        <v>149</v>
+      <c r="D43" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="E43" s="32" t="s">
+        <v>209</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
@@ -3773,24 +4029,126 @@
       <c r="I43" s="4"/>
       <c r="Z43" s="3"/>
     </row>
-    <row r="44" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:26" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>196</v>
+      </c>
       <c r="C44" s="4"/>
+      <c r="D44" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>146</v>
+      </c>
       <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
+      <c r="G44" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="H44" s="20"/>
       <c r="I44" s="4"/>
     </row>
-    <row r="45" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:26" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>197</v>
+      </c>
       <c r="C45" s="4"/>
       <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
+      <c r="G45" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>213</v>
+      </c>
       <c r="I45" s="4"/>
     </row>
     <row r="46" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="B46" s="35"/>
       <c r="C46" s="4"/>
+      <c r="D46" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="E46" s="30"/>
       <c r="F46" s="4"/>
+      <c r="G46" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>214</v>
+      </c>
       <c r="I46" s="4"/>
+    </row>
+    <row r="47" spans="1:26" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D48" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="49" spans="4:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D49" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="H49" s="33" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="50" spans="4:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G50" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="H50" s="12" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="51" spans="4:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G51" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="H51" s="14" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="73" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
@@ -3801,13 +4159,13 @@
       <c r="B74" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G13:H15"/>
+  <mergeCells count="28">
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="D46:E46"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="G36:H36"/>
@@ -3824,8 +4182,12 @@
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G13:H15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
